--- a/ApolloQA/Data/RatingManual/GA/VA00049.AutoCoverageTypeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00049.AutoCoverageTypeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.AutoCoverageTypeFactors" sheetId="1" r:id="R5d862255c77a45c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.AutoCoverageTypeFactors" sheetId="1" r:id="R46b49f50198e479d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,15 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Auto Coverage Type</x:v>
+        <x:v>Accident Prevention</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Auto Coverage Type Factor</x:v>
+        <x:v>Accident Prevention Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Physical Damage - Comprehensive</x:v>
+        <x:v>No</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -28,10 +28,10 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Physical Damage - Specified Causes of Loss</x:v>
+        <x:v>Yes</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8000</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
